--- a/leetcode_3_check_task.xlsx
+++ b/leetcode_3_check_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E25A20D-8E21-E846-8298-DB125B1E5FBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D4CCA4-243B-B440-98AD-D435535E054D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,8 +137,246 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Trapping Rain Water</t>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Maximal Rectangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Min Stack</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Implement Queue using Stacks</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Implement Stack using Queues</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Binary Tree Level Order Traversal</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal II</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Verify Preorder Sequence in Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Next Greater Element I</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Greater Element II  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <r>
+      <t>Perfect Squares</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+  </si>
+  <si>
+    <r>
+      <t>Top K Frequent Elements</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>Validate Stack Sequences</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moving Average from Data Stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Snake Game </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Sum of Rectangle No Larger Than K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Kill Process</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Scheduler </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design Circular Queue</t>
+  </si>
+  <si>
+    <r>
+      <t>Design Circular Deque</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   </t>
+    </r>
+  </si>
+  <si>
+    <t>Shortest Subarray with Sum at Least K</t>
+  </si>
+  <si>
+    <t>Number of Recent Calls</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <r>
+      <t>Course Schedule II</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Clone Graph</t>
     </r>
     <r>
       <rPr>
@@ -154,19 +392,8 @@
     </r>
   </si>
   <si>
-    <t>Largest Rectangle in Histogram</t>
-  </si>
-  <si>
-    <t>Maximal Rectangle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove Duplicate Letters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Min Stack</t>
+    <r>
+      <t>Binary Tree Preorder Traversal</t>
     </r>
     <r>
       <rPr>
@@ -183,7 +410,7 @@
   </si>
   <si>
     <r>
-      <t>Implement Queue using Stacks</t>
+      <t>Binary Tree Postorder Traversal</t>
     </r>
     <r>
       <rPr>
@@ -195,12 +422,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Implement Stack using Queues</t>
+      <t>   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Binary Tree Inorder Traversal</t>
     </r>
     <r>
       <rPr>
@@ -217,140 +444,7 @@
   </si>
   <si>
     <r>
-      <t>Binary Tree Level Order Traversal</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>Binary Tree Level Order Traversal II</t>
-  </si>
-  <si>
-    <t>Binary Tree Zigzag Level Order Traversal</t>
-  </si>
-  <si>
-    <t>Verify Preorder Serialization of a Binary Tree</t>
-  </si>
-  <si>
-    <t>Verify Preorder Sequence in Binary Search Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Next Greater Element I</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Greater Element II  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum Height Trees</t>
-  </si>
-  <si>
-    <r>
-      <t>Perfect Squares</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  </t>
-    </r>
-  </si>
-  <si>
-    <t>Word Ladder</t>
-  </si>
-  <si>
-    <r>
-      <t>Top K Frequent Elements</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  </t>
-    </r>
-  </si>
-  <si>
-    <t>Validate Stack Sequences</t>
-  </si>
-  <si>
-    <t>Evaluate Division</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moving Average from Data Stream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Snake Game </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max Sum of Rectangle No Larger Than K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Kill Process</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Task Scheduler </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Design Circular Queue</t>
-  </si>
-  <si>
-    <r>
-      <t>Design Circular Deque</t>
+      <t>Binary Search Tree Iterator</t>
     </r>
     <r>
       <rPr>
@@ -366,34 +460,44 @@
     </r>
   </si>
   <si>
-    <t>Shortest Subarray with Sum at Least K</t>
-  </si>
-  <si>
-    <t>Number of Recent Calls</t>
-  </si>
-  <si>
-    <t>Course Schedule</t>
-  </si>
-  <si>
-    <r>
-      <t>Course Schedule II</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Clone Graph</t>
+    <t>注意（ 和  ）的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写的太麻烦，没有考虑的情况题太多，做了一个点。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考别人的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还可以使用递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看节省空间的方法https://github.com/apachecn/awesome-algorithm/blob/master/docs/Leetcode_Solutions/Python/0341._Flatten_Nested_List_Iterator.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还可以使用递归,不太明白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意python 负数的//。，结果是-0.1， 取整数后为-1，所以a//b +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新做一下，https://github.com/apachecn/awesome-algorithm/blob/master/docs/Leetcode_Solutions/Python/0224._Basic_Calculator.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Trapping Rain Water</t>
     </r>
     <r>
       <rPr>
@@ -407,105 +511,14 @@
       </rPr>
       <t>    </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Binary Tree Preorder Traversal</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Binary Tree Postorder Traversal</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Binary Tree Inorder Traversal</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Binary Search Tree Iterator</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>   </t>
-    </r>
-  </si>
-  <si>
-    <t>注意（ 和  ）的情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写的太麻烦，没有考虑的情况题太多，做了一个点。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考别人的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic Calculator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还可以使用递归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看看节省空间的方法https://github.com/apachecn/awesome-algorithm/blob/master/docs/Leetcode_Solutions/Python/0341._Flatten_Nested_List_Iterator.md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还可以使用递归,不太明白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意python 负数的//。，结果是-0.1， 取整数后为-1，所以a//b +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆栈的方法？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标注黄色的是相同类型的题目，需要再看一下，整理笔记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +526,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -580,6 +593,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -612,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,7 +661,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -989,7 +1013,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1027,7 +1051,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1046,11 +1070,11 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1069,11 +1093,11 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>388</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1092,11 +1116,11 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8">
+      <c r="A5" s="10">
         <v>394</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1115,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>341</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1138,11 +1162,11 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>385</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1152,7 +1176,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1161,11 +1185,11 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>150</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1184,23 +1208,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7">
         <v>224</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>57</v>
+      <c r="B9" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4">
+      <c r="A10" s="7">
         <v>227</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1209,31 +1244,58 @@
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4">
+      <c r="A11" s="7">
         <v>42</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>84</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
@@ -1241,235 +1303,275 @@
         <v>85</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>316</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>155</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>232</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="4">
         <v>225</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="7">
         <v>102</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6">
       <c r="A19" s="4">
         <v>107</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="A20" s="4">
         <v>103</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:6">
       <c r="A21" s="4">
         <v>331</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6">
       <c r="A22" s="4">
         <v>255</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6">
       <c r="A23" s="4">
         <v>496</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6">
       <c r="A24" s="4">
         <v>503</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6">
       <c r="A25" s="4">
         <v>310</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6">
       <c r="A26" s="7">
         <v>279</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:6">
       <c r="A27" s="4">
         <v>127</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:6">
       <c r="A28" s="4">
         <v>347</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:6">
       <c r="A29" s="4">
         <v>946</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6">
       <c r="A30" s="4">
         <v>399</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:6">
       <c r="A31" s="4">
         <v>346</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:6">
       <c r="A32" s="4">
         <v>353</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -1481,7 +1583,7 @@
         <v>363</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>16</v>
@@ -1493,7 +1595,7 @@
         <v>582</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -1505,7 +1607,7 @@
         <v>621</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -1517,7 +1619,7 @@
         <v>622</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -1529,7 +1631,7 @@
         <v>641</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -1541,7 +1643,7 @@
         <v>862</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>16</v>
@@ -1553,7 +1655,7 @@
         <v>933</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -1565,7 +1667,7 @@
         <v>207</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -1577,7 +1679,7 @@
         <v>210</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -1589,7 +1691,7 @@
         <v>133</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -1601,7 +1703,7 @@
         <v>144</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
@@ -1613,7 +1715,7 @@
         <v>145</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>16</v>
@@ -1625,7 +1727,7 @@
         <v>94</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -1637,7 +1739,7 @@
         <v>173</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -1655,7 +1757,9 @@
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>

--- a/leetcode_3_check_task.xlsx
+++ b/leetcode_3_check_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D4CCA4-243B-B440-98AD-D435535E054D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B8C987-1A63-F847-A9A2-E615978F5851}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,12 +521,16 @@
     <t>标注黄色的是相同类型的题目，需要再看一下，整理笔记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>使用栈的方法回来看一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,6 +605,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -633,7 +644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,6 +676,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,14 +1026,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
@@ -1378,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>225</v>
       </c>
@@ -1398,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="7">
         <v>102</v>
       </c>
@@ -1408,9 +1422,17 @@
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4">
         <v>107</v>
       </c>
@@ -1420,9 +1442,17 @@
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <v>103</v>
       </c>
@@ -1432,9 +1462,17 @@
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="4">
         <v>331</v>
       </c>
@@ -1444,9 +1482,17 @@
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="4">
         <v>255</v>
       </c>
@@ -1456,9 +1502,17 @@
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="4">
         <v>496</v>
       </c>
@@ -1468,9 +1522,17 @@
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="4">
         <v>503</v>
       </c>
@@ -1480,9 +1542,20 @@
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4">
         <v>310</v>
       </c>
@@ -1492,9 +1565,11 @@
       <c r="C25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="7">
         <v>279</v>
       </c>
@@ -1506,7 +1581,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
         <v>127</v>
       </c>
@@ -1518,7 +1593,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="4">
         <v>347</v>
       </c>
@@ -1530,7 +1605,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" s="4">
         <v>946</v>
       </c>
@@ -1542,7 +1617,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="4">
         <v>399</v>
       </c>
@@ -1554,7 +1629,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="4">
         <v>346</v>
       </c>
@@ -1566,7 +1641,7 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="4">
         <v>353</v>
       </c>

--- a/leetcode_3_check_task.xlsx
+++ b/leetcode_3_check_task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/GitHub/LeetCodeProblems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B8C987-1A63-F847-A9A2-E615978F5851}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A3A577-9DE6-6C4F-A7B2-523E4F926166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
+    <workbookView xWindow="34960" yWindow="2280" windowWidth="28800" windowHeight="17220" xr2:uid="{0338AAF4-5980-B146-A75A-C35532F45467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +523,10 @@
   </si>
   <si>
     <t>使用栈的方法回来看一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,9 +662,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
@@ -679,6 +680,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39131D7-F5CA-9844-8689-105AE96F5134}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1065,10 +1075,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1088,10 +1098,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>71</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1111,10 +1121,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>388</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1134,10 +1144,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>394</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1157,10 +1167,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>341</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1180,17 +1190,17 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7">
+      <c r="A7" s="11">
         <v>385</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1203,10 +1213,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>150</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1226,10 +1236,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>224</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1238,7 +1248,7 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
       <c r="F9" s="1">
@@ -1249,7 +1259,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>227</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1259,9 +1269,9 @@
         <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
         <v>1</v>
       </c>
       <c r="F10" s="1">
@@ -1269,10 +1279,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>42</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1281,7 +1291,7 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>1</v>
       </c>
       <c r="F11" s="1">
@@ -1295,7 +1305,7 @@
       <c r="A12" s="4">
         <v>84</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1304,7 +1314,7 @@
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>1</v>
       </c>
       <c r="F12" s="1">
@@ -1325,7 +1335,7 @@
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
       <c r="F13" s="1">
@@ -1345,7 +1355,7 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>1</v>
       </c>
       <c r="F14" s="1">
@@ -1356,7 +1366,7 @@
       <c r="A15" s="4">
         <v>155</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1365,7 +1375,7 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>0</v>
       </c>
       <c r="F15" s="1">
@@ -1376,7 +1386,7 @@
       <c r="A16" s="4">
         <v>232</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1385,7 +1395,7 @@
       <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>0</v>
       </c>
       <c r="F16" s="1">
@@ -1396,7 +1406,7 @@
       <c r="A17" s="4">
         <v>225</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1405,7 +1415,7 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>0</v>
       </c>
       <c r="F17" s="1">
@@ -1413,10 +1423,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>102</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1425,7 +1435,7 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>0</v>
       </c>
       <c r="F18" s="1">
@@ -1436,7 +1446,7 @@
       <c r="A19" s="4">
         <v>107</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1456,7 +1466,7 @@
       <c r="A20" s="4">
         <v>103</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1476,7 +1486,7 @@
       <c r="A21" s="4">
         <v>331</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1516,7 +1526,7 @@
       <c r="A23" s="4">
         <v>496</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1551,7 +1561,7 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1559,7 +1569,7 @@
       <c r="A25" s="4">
         <v>310</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1568,78 +1578,129 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>279</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4">
         <v>127</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4">
         <v>347</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4">
         <v>946</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="4">
+      <c r="A30" s="11">
         <v>399</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4">
         <v>346</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4">
@@ -1651,10 +1712,15 @@
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4">
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="11">
         <v>363</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1663,170 +1729,240 @@
       <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5">
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="13">
         <v>582</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="4">
         <v>621</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4">
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="11">
         <v>622</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="4">
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11">
         <v>641</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="4">
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="11">
         <v>862</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4">
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="11">
         <v>933</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4">
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="11">
         <v>207</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4">
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="11">
         <v>210</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4">
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="11">
         <v>133</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4">
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="11">
         <v>144</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4">
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="11">
         <v>145</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4">
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="11">
         <v>94</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4">
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="11">
         <v>173</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2077,8 +2213,10 @@
     <hyperlink ref="B44" r:id="rId34" display="https://leetcode.com/problems/binary-tree-postorder-traversal" xr:uid="{59B4EFD1-0B47-3F4D-A633-098A54B20E9E}"/>
     <hyperlink ref="B45" r:id="rId35" display="https://leetcode.com/problems/binary-tree-inorder-traversal" xr:uid="{6E89BE66-1B56-424D-BD44-55FA52A4F10F}"/>
     <hyperlink ref="B46" r:id="rId36" display="https://leetcode.com/problems/binary-search-tree-iterator" xr:uid="{28152D23-A3D4-594A-911D-49E1EBDE0EE2}"/>
+    <hyperlink ref="B30" r:id="rId37" xr:uid="{A1D012D9-7C68-6E4F-A0FC-BAE1D8177177}"/>
+    <hyperlink ref="B35" r:id="rId38" xr:uid="{7B20F42B-0061-584F-A2F3-B7D377C531C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>